--- a/data/trans_orig/P1419-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1419-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>52870</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40812</v>
+        <v>39785</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>69412</v>
+        <v>68892</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05124472419938793</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03955703836038316</v>
+        <v>0.03856169647928247</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06727816767722765</v>
+        <v>0.06677343074630307</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>225</v>
@@ -765,19 +765,19 @@
         <v>229813</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>203634</v>
+        <v>203494</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>256778</v>
+        <v>257221</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1747478656659702</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1548415260779317</v>
+        <v>0.1547352117945466</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.195251701680364</v>
+        <v>0.1955885221820411</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>278</v>
@@ -786,19 +786,19 @@
         <v>282683</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>253401</v>
+        <v>250953</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>313720</v>
+        <v>313542</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1204530446698711</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1079758371114187</v>
+        <v>0.1069325974641047</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1336780761765714</v>
+        <v>0.1336020171048784</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>978853</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>962311</v>
+        <v>962831</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>990911</v>
+        <v>991938</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.948755275800612</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9327218323227724</v>
+        <v>0.9332265692536972</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9604429616396168</v>
+        <v>0.9614383035207176</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1066</v>
@@ -836,19 +836,19 @@
         <v>1085300</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1058335</v>
+        <v>1057892</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1111479</v>
+        <v>1111619</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8252521343340298</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8047482983196359</v>
+        <v>0.8044114778179587</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8451584739220683</v>
+        <v>0.8452647882054535</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2051</v>
@@ -857,19 +857,19 @@
         <v>2064152</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2033115</v>
+        <v>2033293</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2093434</v>
+        <v>2095882</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8795469553301288</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8663219238234287</v>
+        <v>0.8663979828951216</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8920241628885812</v>
+        <v>0.8930674025358954</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>34571</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24415</v>
+        <v>23955</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47721</v>
+        <v>49075</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02041473699198558</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01441758901198958</v>
+        <v>0.01414625683762531</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0281806045054904</v>
+        <v>0.02897971305563169</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>102</v>
@@ -982,19 +982,19 @@
         <v>105215</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>85044</v>
+        <v>87215</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>125861</v>
+        <v>128565</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06626976960414799</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05356499859106525</v>
+        <v>0.05493263289980289</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07927371167169876</v>
+        <v>0.08097673805620553</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>135</v>
@@ -1003,19 +1003,19 @@
         <v>139785</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>118330</v>
+        <v>119131</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>165420</v>
+        <v>165283</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04260336851702607</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0360642540068755</v>
+        <v>0.0363082765019679</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05041620308113196</v>
+        <v>0.05037452170605675</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1658842</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1645692</v>
+        <v>1644338</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1668998</v>
+        <v>1669458</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9795852630080144</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9718193954945096</v>
+        <v>0.9710202869443683</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9855824109880105</v>
+        <v>0.9858537431623746</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1452</v>
@@ -1053,19 +1053,19 @@
         <v>1482458</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1461812</v>
+        <v>1459108</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1502629</v>
+        <v>1500458</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.933730230395852</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9207262883283014</v>
+        <v>0.9190232619437946</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9464350014089349</v>
+        <v>0.9450673671001971</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3068</v>
@@ -1074,19 +1074,19 @@
         <v>3141301</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3115666</v>
+        <v>3115803</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3162756</v>
+        <v>3161955</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9573966314829739</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9495837969188679</v>
+        <v>0.9496254782939436</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9639357459931245</v>
+        <v>0.9636917234980326</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>11638</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6121</v>
+        <v>6276</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21098</v>
+        <v>20771</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02110535818125341</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01110024718208068</v>
+        <v>0.0113820705321917</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03826183544390374</v>
+        <v>0.03766886922144795</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -1199,19 +1199,19 @@
         <v>29310</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19028</v>
+        <v>18712</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40109</v>
+        <v>43033</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0615220148870867</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03994064763624411</v>
+        <v>0.03927760237245059</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08419065076335626</v>
+        <v>0.09032778749601782</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -1220,19 +1220,19 @@
         <v>40947</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29042</v>
+        <v>29815</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55368</v>
+        <v>56559</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03983915746670057</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02825588833663925</v>
+        <v>0.02900762328285921</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05386891858140013</v>
+        <v>0.05502818780131802</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>539770</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>530310</v>
+        <v>530637</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>545287</v>
+        <v>545132</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9788946418187466</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9617381645560958</v>
+        <v>0.9623311307785481</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9888997528179192</v>
+        <v>0.9886179294678081</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>425</v>
@@ -1270,19 +1270,19 @@
         <v>447102</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>436303</v>
+        <v>433379</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>457384</v>
+        <v>457700</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9384779851129134</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9158093492366437</v>
+        <v>0.9096722125039822</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9600593523637556</v>
+        <v>0.9607223976275491</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>941</v>
@@ -1291,19 +1291,19 @@
         <v>986873</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>972452</v>
+        <v>971261</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>998778</v>
+        <v>998005</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9601608425332995</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9461310814185999</v>
+        <v>0.944971812198682</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9717441116633607</v>
+        <v>0.9709923767171404</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>99079</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80964</v>
+        <v>81296</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>120304</v>
+        <v>122651</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03023875351463116</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02471005503793902</v>
+        <v>0.02481157632633572</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0367167843875673</v>
+        <v>0.03743316686085231</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>354</v>
@@ -1416,19 +1416,19 @@
         <v>364338</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>327860</v>
+        <v>330106</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>404256</v>
+        <v>404240</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1078178104653652</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09702312699098127</v>
+        <v>0.09768768418091697</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.119630666628669</v>
+        <v>0.1196260605721394</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>451</v>
@@ -1437,19 +1437,19 @@
         <v>463416</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>420478</v>
+        <v>423027</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>506109</v>
+        <v>503676</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06962654745453964</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06317519645404583</v>
+        <v>0.06355816105474427</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07604098589077291</v>
+        <v>0.0756753997284475</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3177464</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3156239</v>
+        <v>3153892</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3195579</v>
+        <v>3195247</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9697612464853689</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9632832156124328</v>
+        <v>0.9625668331391478</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.975289944962061</v>
+        <v>0.9751884236736645</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2943</v>
@@ -1487,19 +1487,19 @@
         <v>3014859</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2974941</v>
+        <v>2974957</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3051337</v>
+        <v>3049091</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8921821895346348</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8803693333713307</v>
+        <v>0.8803739394278606</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9029768730090187</v>
+        <v>0.902312315819083</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6060</v>
@@ -1508,19 +1508,19 @@
         <v>6192325</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6149632</v>
+        <v>6152065</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6235263</v>
+        <v>6232714</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9303734525454603</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9239590141092271</v>
+        <v>0.9243246002715525</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9368248035459542</v>
+        <v>0.9364418389452557</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>21889</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13604</v>
+        <v>14146</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32864</v>
+        <v>33416</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02245851086081577</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01395830871061808</v>
+        <v>0.01451414791292832</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03371918492519211</v>
+        <v>0.03428493111452385</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>182</v>
@@ -1872,19 +1872,19 @@
         <v>193500</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>168233</v>
+        <v>167675</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>220073</v>
+        <v>222792</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1446408337005509</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.125753758458199</v>
+        <v>0.1253366762493663</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1645038804920323</v>
+        <v>0.166536648206109</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>202</v>
@@ -1893,19 +1893,19 @@
         <v>215389</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>186613</v>
+        <v>186938</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>245424</v>
+        <v>245203</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09314364035405386</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08069976810324064</v>
+        <v>0.0808399919654174</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1061321160050443</v>
+        <v>0.1060363848877953</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>952754</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>941779</v>
+        <v>941227</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>961039</v>
+        <v>960497</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9775414891391843</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9662808150748077</v>
+        <v>0.965715068885476</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9860416912893819</v>
+        <v>0.9854858520870716</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1065</v>
@@ -1943,19 +1943,19 @@
         <v>1144297</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1117724</v>
+        <v>1115005</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1169564</v>
+        <v>1170122</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8553591662994491</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8354961195079676</v>
+        <v>0.8334633517938909</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.874246241541801</v>
+        <v>0.8746633237506336</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1953</v>
@@ -1964,19 +1964,19 @@
         <v>2097051</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2067016</v>
+        <v>2067237</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2125827</v>
+        <v>2125502</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9068563596459461</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8938678839949558</v>
+        <v>0.8939636151122048</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9193002318967595</v>
+        <v>0.9191600080345828</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>16813</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9654</v>
+        <v>9491</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28108</v>
+        <v>27623</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00856090768220375</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004915359368511858</v>
+        <v>0.004832421541868469</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01431185221036532</v>
+        <v>0.01406519446246091</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>81</v>
@@ -2089,19 +2089,19 @@
         <v>91482</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>73940</v>
+        <v>74119</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>113562</v>
+        <v>114527</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05213866433477585</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04214105953207235</v>
+        <v>0.04224275019949963</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06472252472790045</v>
+        <v>0.06527256772323747</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>96</v>
@@ -2110,19 +2110,19 @@
         <v>108295</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>89020</v>
+        <v>88276</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>134302</v>
+        <v>132275</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02912300733897492</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02393931585102639</v>
+        <v>0.02373942410059997</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03611683232009558</v>
+        <v>0.03557171986942143</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1947144</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1935849</v>
+        <v>1936334</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1954303</v>
+        <v>1954466</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9914390923177963</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9856881477896339</v>
+        <v>0.9859348055375402</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9950846406314882</v>
+        <v>0.9951675784581316</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1552</v>
@@ -2160,19 +2160,19 @@
         <v>1663110</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1641030</v>
+        <v>1640065</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1680652</v>
+        <v>1680473</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9478613356652241</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9352774752720991</v>
+        <v>0.9347274322767628</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9578589404679274</v>
+        <v>0.9577572498005004</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3393</v>
@@ -2181,19 +2181,19 @@
         <v>3610254</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3584247</v>
+        <v>3586274</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3629529</v>
+        <v>3630273</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9708769926610251</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9638831676799043</v>
+        <v>0.9644282801305786</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9760606841489735</v>
+        <v>0.9762605758994001</v>
       </c>
     </row>
     <row r="9">
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10382</v>
+        <v>10492</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004334275244209836</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02157675702762704</v>
+        <v>0.02180374452525093</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -2306,19 +2306,19 @@
         <v>14702</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8686</v>
+        <v>8180</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23419</v>
+        <v>23551</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03205722195314734</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01893954306421766</v>
+        <v>0.01783463419207234</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05106378833717979</v>
+        <v>0.05135156340269151</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -2327,19 +2327,19 @@
         <v>16788</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10069</v>
+        <v>9643</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26573</v>
+        <v>26309</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01786314920494093</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01071368179947036</v>
+        <v>0.01026003319015462</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02827466784648141</v>
+        <v>0.02799352430913336</v>
       </c>
     </row>
     <row r="11">
@@ -2356,7 +2356,7 @@
         <v>479095</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>470799</v>
+        <v>470689</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>481181</v>
@@ -2365,7 +2365,7 @@
         <v>0.9956657247557902</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9784232429723729</v>
+        <v>0.9781962554747491</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2377,19 +2377,19 @@
         <v>443929</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>435212</v>
+        <v>435080</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>449945</v>
+        <v>450451</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9679427780468527</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9489362116628202</v>
+        <v>0.9486484365973085</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9810604569357824</v>
+        <v>0.9821653658079277</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>834</v>
@@ -2398,19 +2398,19 @@
         <v>923025</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>913240</v>
+        <v>913504</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>929744</v>
+        <v>930170</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9821368507950591</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9717253321535185</v>
+        <v>0.9720064756908666</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9892863182005296</v>
+        <v>0.9897399668098453</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>40788</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28839</v>
+        <v>29805</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56644</v>
+        <v>56836</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01192703605893436</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008433139652832849</v>
+        <v>0.008715432765839307</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01656363153479414</v>
+        <v>0.01661971849023281</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>278</v>
@@ -2523,19 +2523,19 @@
         <v>299685</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>266781</v>
+        <v>268249</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>336991</v>
+        <v>335026</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08439393760428418</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07512800433597844</v>
+        <v>0.07554135767179708</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09489969314055202</v>
+        <v>0.09434630786276842</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>314</v>
@@ -2544,19 +2544,19 @@
         <v>340472</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>303069</v>
+        <v>303993</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>382444</v>
+        <v>379011</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04884264627386258</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04347694787134415</v>
+        <v>0.04360940790108867</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0548636932525905</v>
+        <v>0.05437122630170136</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3378994</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3363138</v>
+        <v>3362946</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3390943</v>
+        <v>3389977</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9880729639410657</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9834363684652058</v>
+        <v>0.9833802815097672</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9915668603471671</v>
+        <v>0.9912845672341607</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3014</v>
@@ -2594,19 +2594,19 @@
         <v>3251335</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3214029</v>
+        <v>3215994</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3284239</v>
+        <v>3282771</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9156060623957158</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9051003068594481</v>
+        <v>0.9056536921372319</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9248719956640217</v>
+        <v>0.9244586423282029</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6180</v>
@@ -2615,19 +2615,19 @@
         <v>6630329</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6588357</v>
+        <v>6591790</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6667732</v>
+        <v>6666808</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9511573537261374</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9451363067474096</v>
+        <v>0.9456287736982987</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9565230521286558</v>
+        <v>0.9563905920989113</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>18322</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11223</v>
+        <v>11570</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26824</v>
+        <v>27899</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02428902182059419</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01487717360025578</v>
+        <v>0.01533838021996478</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03555982219882605</v>
+        <v>0.03698365889578878</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>98</v>
@@ -2979,19 +2979,19 @@
         <v>116433</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>97737</v>
+        <v>95800</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>140685</v>
+        <v>137994</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1170582177788953</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09826126173309424</v>
+        <v>0.09631392552097773</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1414406096985005</v>
+        <v>0.1387349309624484</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>117</v>
@@ -3000,19 +3000,19 @@
         <v>134755</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>113544</v>
+        <v>111894</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>159462</v>
+        <v>160819</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07704685931751705</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06491894434461137</v>
+        <v>0.06397560546182665</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09117304427515191</v>
+        <v>0.0919485566845414</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>736025</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>727523</v>
+        <v>726448</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>743124</v>
+        <v>742777</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9757109781794058</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9644401778011739</v>
+        <v>0.9630163411042112</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9851228263997441</v>
+        <v>0.9846616197800352</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>794</v>
@@ -3050,19 +3050,19 @@
         <v>878227</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>853975</v>
+        <v>856666</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>896923</v>
+        <v>898860</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8829417822211048</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8585593903014994</v>
+        <v>0.8612650690375516</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9017387382669058</v>
+        <v>0.9036860744790223</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1537</v>
@@ -3071,19 +3071,19 @@
         <v>1614252</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1589545</v>
+        <v>1588188</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1635463</v>
+        <v>1637113</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9229531406824829</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9088269557248482</v>
+        <v>0.9080514433154585</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9350810556553888</v>
+        <v>0.9360243945381733</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>27706</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17968</v>
+        <v>19283</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40024</v>
+        <v>42125</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01334350710672512</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008653315783047911</v>
+        <v>0.009286603098530896</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01927582187940775</v>
+        <v>0.02028749172037236</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>76</v>
@@ -3196,19 +3196,19 @@
         <v>86198</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>69680</v>
+        <v>68039</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>105704</v>
+        <v>106659</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04335240996618812</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03504506399551236</v>
+        <v>0.03421945565960182</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0531629334599102</v>
+        <v>0.05364352498857493</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>102</v>
@@ -3217,19 +3217,19 @@
         <v>113904</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>92217</v>
+        <v>93129</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>137573</v>
+        <v>139233</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02802280034972482</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02268726743235144</v>
+        <v>0.02291167358122055</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03384582953343593</v>
+        <v>0.03425436762440203</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2048679</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2036361</v>
+        <v>2034260</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2058417</v>
+        <v>2057102</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9866564928932748</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.980724178120592</v>
+        <v>0.9797125082796272</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9913466842169518</v>
+        <v>0.9907133969014689</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1832</v>
@@ -3267,19 +3267,19 @@
         <v>1902102</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1882596</v>
+        <v>1881641</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1918620</v>
+        <v>1920261</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9566475900338118</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9468370665400897</v>
+        <v>0.9463564750114251</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9649549360044876</v>
+        <v>0.9657805443403982</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3758</v>
@@ -3288,19 +3288,19 @@
         <v>3950781</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3927112</v>
+        <v>3925452</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3972468</v>
+        <v>3971556</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9719771996502752</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9661541704665642</v>
+        <v>0.9657456323755972</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9773127325676485</v>
+        <v>0.9770883264187793</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>6313</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2021</v>
+        <v>2048</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14185</v>
+        <v>13949</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01154283531631529</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003696266972247498</v>
+        <v>0.003745354746911581</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02593832234682815</v>
+        <v>0.02550638991945283</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -3413,19 +3413,19 @@
         <v>15627</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8589</v>
+        <v>8439</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26344</v>
+        <v>26568</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02845692614984068</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01564145922554337</v>
+        <v>0.01536793766248784</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0479723628185002</v>
+        <v>0.04838063618688419</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -3434,19 +3434,19 @@
         <v>21939</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13272</v>
+        <v>13253</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35087</v>
+        <v>35623</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02001727391678924</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01210943864203248</v>
+        <v>0.01209185046970022</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03201244870253451</v>
+        <v>0.032501771553789</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>540573</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>532701</v>
+        <v>532937</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>544865</v>
+        <v>544838</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9884571646836847</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9740616776531716</v>
+        <v>0.9744936100805469</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9963037330277524</v>
+        <v>0.9962546452530884</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>513</v>
@@ -3484,19 +3484,19 @@
         <v>533513</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>522796</v>
+        <v>522572</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>540551</v>
+        <v>540701</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9715430738501594</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9520276371814993</v>
+        <v>0.9516193638131155</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9843585407744563</v>
+        <v>0.9846320623375121</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1009</v>
@@ -3505,19 +3505,19 @@
         <v>1074088</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1060940</v>
+        <v>1060404</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1082755</v>
+        <v>1082774</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9799827260832108</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9679875512974655</v>
+        <v>0.967498228446211</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9878905613579676</v>
+        <v>0.9879081495302998</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>52341</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38071</v>
+        <v>38232</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67620</v>
+        <v>68746</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0154964893035845</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01127152078409686</v>
+        <v>0.0113191658717352</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02002015478109133</v>
+        <v>0.02035341891871053</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>187</v>
@@ -3630,19 +3630,19 @@
         <v>218258</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>188743</v>
+        <v>187491</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>251190</v>
+        <v>247456</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06179257601221695</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05343659261219801</v>
+        <v>0.05308211866730823</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07111619767380614</v>
+        <v>0.0700593053934417</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>237</v>
@@ -3651,19 +3651,19 @@
         <v>270599</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>235991</v>
+        <v>236659</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>306112</v>
+        <v>305048</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03916206039082208</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03415353878509337</v>
+        <v>0.03425018262274616</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04430164356828226</v>
+        <v>0.04414773498850913</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3325277</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3309998</v>
+        <v>3308872</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3339547</v>
+        <v>3339386</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9845035106964155</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9799798452189088</v>
+        <v>0.9796465810812897</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9887284792159033</v>
+        <v>0.9886808341282649</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3139</v>
@@ -3701,19 +3701,19 @@
         <v>3313842</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3280910</v>
+        <v>3284644</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3343357</v>
+        <v>3344609</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.938207423987783</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9288838023261938</v>
+        <v>0.9299406946065583</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9465634073878019</v>
+        <v>0.9469178813326916</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6304</v>
@@ -3722,19 +3722,19 @@
         <v>6639119</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6603606</v>
+        <v>6604670</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6673727</v>
+        <v>6673059</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.960837939609178</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9556983564317177</v>
+        <v>0.9558522650114908</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9658464612149064</v>
+        <v>0.9657498173772538</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>38569</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29675</v>
+        <v>29396</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52264</v>
+        <v>52548</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06678134986333904</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05138069908646536</v>
+        <v>0.05089868698896282</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09049356964860863</v>
+        <v>0.09098537602160446</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>262</v>
@@ -4086,19 +4086,19 @@
         <v>147933</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>132355</v>
+        <v>131129</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>166748</v>
+        <v>164730</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1801167966938386</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1611501082260093</v>
+        <v>0.1596569613778686</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2030253870700536</v>
+        <v>0.2005682085896649</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>311</v>
@@ -4107,19 +4107,19 @@
         <v>186502</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>167242</v>
+        <v>167556</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>211656</v>
+        <v>207995</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1333243296345355</v>
+        <v>0.1333243296345354</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.119556372164536</v>
+        <v>0.1197808031825434</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1513062934852587</v>
+        <v>0.148688999320185</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>538973</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>525278</v>
+        <v>524994</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>547867</v>
+        <v>548146</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9332186501366609</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9095064303513924</v>
+        <v>0.9090146239783953</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9486193009135347</v>
+        <v>0.9491013130110372</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1164</v>
@@ -4157,19 +4157,19 @@
         <v>673382</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>654567</v>
+        <v>656585</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>688960</v>
+        <v>690186</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8198832033061614</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7969746129299465</v>
+        <v>0.7994317914103349</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8388498917739907</v>
+        <v>0.8403430386221314</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1805</v>
@@ -4178,19 +4178,19 @@
         <v>1212355</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1187201</v>
+        <v>1190862</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1231615</v>
+        <v>1231301</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8666756703654648</v>
+        <v>0.8666756703654644</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8486937065147402</v>
+        <v>0.8513110006798151</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.880443627835464</v>
+        <v>0.8802191968174565</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>77874</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>61560</v>
+        <v>62459</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>95020</v>
+        <v>96131</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.034925696489052</v>
+        <v>0.03492569648905199</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02760891859185673</v>
+        <v>0.02801221972321411</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04261563719306843</v>
+        <v>0.04311375605906041</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>337</v>
@@ -4303,19 +4303,19 @@
         <v>206977</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>185224</v>
+        <v>187685</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>231447</v>
+        <v>230865</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.09540953579590844</v>
+        <v>0.09540953579590843</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08538231520172006</v>
+        <v>0.08651662907233171</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1066895527500776</v>
+        <v>0.106421016963332</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>424</v>
@@ -4324,19 +4324,19 @@
         <v>284851</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>258623</v>
+        <v>256277</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>313880</v>
+        <v>313935</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06475276555498811</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05879067910079749</v>
+        <v>0.05825736590539015</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07135175988369939</v>
+        <v>0.07136430430169202</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2151824</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2134678</v>
+        <v>2133567</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2168138</v>
+        <v>2167239</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9650743035109479</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9573843628069327</v>
+        <v>0.9568862439409396</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9723910814081433</v>
+        <v>0.971987780276786</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2581</v>
@@ -4374,19 +4374,19 @@
         <v>1962376</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1937906</v>
+        <v>1938488</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1984129</v>
+        <v>1981668</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9045904642040916</v>
+        <v>0.9045904642040915</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8933104472499223</v>
+        <v>0.8935789830366684</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9146176847982799</v>
+        <v>0.9134833709276684</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4485</v>
@@ -4395,19 +4395,19 @@
         <v>4114200</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4085171</v>
+        <v>4085116</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4140428</v>
+        <v>4142774</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9352472344450119</v>
+        <v>0.935247234445012</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9286482401163005</v>
+        <v>0.9286356956983083</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9412093208992026</v>
+        <v>0.9417426340946099</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>18148</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11778</v>
+        <v>11458</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29615</v>
+        <v>27310</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02550398204601948</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01655214759007035</v>
+        <v>0.01610182361589245</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04161848531640053</v>
+        <v>0.0383796593007964</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -4520,19 +4520,19 @@
         <v>49516</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39457</v>
+        <v>39456</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61115</v>
+        <v>60792</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06744192283718245</v>
+        <v>0.06744192283718246</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05374237284656717</v>
+        <v>0.05374044120400141</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08324102087947059</v>
+        <v>0.08280141258058786</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>101</v>
@@ -4541,19 +4541,19 @@
         <v>67664</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54473</v>
+        <v>54462</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>82897</v>
+        <v>83760</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04680084152800641</v>
+        <v>0.04680084152800642</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03767721772167081</v>
+        <v>0.03766943085449394</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05733733711243407</v>
+        <v>0.05793389866214885</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>693439</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>681972</v>
+        <v>684277</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>699809</v>
+        <v>700129</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9744960179539807</v>
+        <v>0.9744960179539804</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9583815146835996</v>
+        <v>0.9616203406992037</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9834478524099297</v>
+        <v>0.9838981763841076</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>924</v>
@@ -4591,19 +4591,19 @@
         <v>684679</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>673080</v>
+        <v>673403</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>694738</v>
+        <v>694739</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9325580771628176</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9167589791205293</v>
+        <v>0.9171985874194121</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9462576271534326</v>
+        <v>0.9462595587959985</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1583</v>
@@ -4612,19 +4612,19 @@
         <v>1378118</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1362885</v>
+        <v>1362022</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1391309</v>
+        <v>1391320</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9531991584719938</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9426626628875659</v>
+        <v>0.9420661013378511</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9623227822783292</v>
+        <v>0.962330569145506</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>134591</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>113829</v>
+        <v>113383</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>154688</v>
+        <v>159817</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03824885100273755</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03234849302436396</v>
+        <v>0.03222191990147748</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04396022985913166</v>
+        <v>0.04541772264681303</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>678</v>
@@ -4737,19 +4737,19 @@
         <v>404425</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>374649</v>
+        <v>374292</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>435781</v>
+        <v>435836</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1085745007013461</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.10058060592413</v>
+        <v>0.1004849025780213</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1169925792133517</v>
+        <v>0.1170072600525512</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>836</v>
@@ -4758,19 +4758,19 @@
         <v>539016</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>499801</v>
+        <v>506354</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>579603</v>
+        <v>578088</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07441182869323196</v>
+        <v>0.07441182869323193</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06899818201528406</v>
+        <v>0.06990282598105692</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0800149184252647</v>
+        <v>0.07980572625112925</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3384236</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3364139</v>
+        <v>3359010</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3404998</v>
+        <v>3405444</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9617511489972624</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9560397701408684</v>
+        <v>0.954582277353187</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9676515069756361</v>
+        <v>0.9677780800985226</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4669</v>
@@ -4808,19 +4808,19 @@
         <v>3320438</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3289082</v>
+        <v>3289027</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3350214</v>
+        <v>3350571</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8914254992986538</v>
+        <v>0.8914254992986539</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8830074207866484</v>
+        <v>0.8829927399474488</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.89941939407587</v>
+        <v>0.8995150974219788</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7873</v>
@@ -4829,19 +4829,19 @@
         <v>6704674</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6664087</v>
+        <v>6665602</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6743889</v>
+        <v>6737336</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9255881713067683</v>
+        <v>0.9255881713067681</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9199850815747352</v>
+        <v>0.9201942737488708</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9310018179847162</v>
+        <v>0.9300971740189429</v>
       </c>
     </row>
     <row r="15">
